--- a/output/aggregate_tables/status_by_number_area.xlsx
+++ b/output/aggregate_tables/status_by_number_area.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,37 +515,37 @@
         <v>21</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>16</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>11.18881118881119</v>
+        <v>10.45751633986928</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>55.94405594405595</v>
+        <v>53.59477124183007</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>32.86713286713287</v>
+        <v>35.94771241830065</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>67.13286713286713</v>
+        <v>64.05228758169935</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>32.86713286713287</v>
+        <v>35.94771241830065</v>
       </c>
     </row>
     <row r="3">
@@ -553,7 +553,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>18</v>
@@ -562,28 +562,28 @@
         <v>117</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>135</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>10.16949152542373</v>
+        <v>10.1123595505618</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>66.10169491525424</v>
+        <v>65.73033707865169</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>23.72881355932203</v>
+        <v>24.15730337078652</v>
       </c>
       <c r="K3" s="3" t="n">
-        <v>76.27118644067797</v>
+        <v>75.84269662921348</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>23.72881355932203</v>
+        <v>24.15730337078652</v>
       </c>
     </row>
     <row r="4">
@@ -743,37 +743,37 @@
         <v>47</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>27</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>33</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>33</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>32.92682926829269</v>
+        <v>32.53012048192771</v>
       </c>
       <c r="I8" s="3" t="n">
-        <v>26.82926829268293</v>
+        <v>27.71084337349398</v>
       </c>
       <c r="J8" s="3" t="n">
-        <v>40.2439024390244</v>
+        <v>39.75903614457831</v>
       </c>
       <c r="K8" s="3" t="n">
-        <v>59.7560975609756</v>
+        <v>60.24096385542169</v>
       </c>
       <c r="L8" s="3" t="n">
-        <v>40.2439024390244</v>
+        <v>39.75903614457831</v>
       </c>
     </row>
     <row r="9">
@@ -857,37 +857,37 @@
         <v>61</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>29</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H11" s="3" t="n">
-        <v>32.22222222222222</v>
+        <v>30.85106382978723</v>
       </c>
       <c r="I11" s="3" t="n">
-        <v>31.11111111111111</v>
+        <v>30.85106382978723</v>
       </c>
       <c r="J11" s="3" t="n">
-        <v>36.66666666666666</v>
+        <v>38.29787234042553</v>
       </c>
       <c r="K11" s="3" t="n">
-        <v>63.33333333333333</v>
+        <v>61.70212765957447</v>
       </c>
       <c r="L11" s="3" t="n">
-        <v>36.66666666666666</v>
+        <v>38.29787234042553</v>
       </c>
     </row>
     <row r="12">
@@ -1087,10 +1087,10 @@
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>3</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G17" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="H17" s="3" t="n">
-        <v>86.95652173913044</v>
-      </c>
-      <c r="I17" s="3" t="n">
-        <v>13.04347826086956</v>
+      <c r="H17" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="I17" s="2" t="n">
+        <v>20</v>
       </c>
       <c r="J17" s="2" t="n">
         <v>0</v>
@@ -1123,201 +1123,161 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Deep Sea</t>
+          <t>Salmon</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="H18" s="3" t="n">
+        <v>30.58823529411765</v>
       </c>
       <c r="I18" s="3" t="n">
-        <v>29.41176470588236</v>
+        <v>36.47058823529412</v>
       </c>
       <c r="J18" s="3" t="n">
-        <v>70.58823529411765</v>
+        <v>32.94117647058823</v>
       </c>
       <c r="K18" s="3" t="n">
-        <v>29.41176470588236</v>
+        <v>67.05882352941175</v>
       </c>
       <c r="L18" s="3" t="n">
-        <v>70.58823529411765</v>
+        <v>32.94117647058823</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Salmon</t>
+          <t>Sharks</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="H19" s="3" t="n">
-        <v>30.58823529411765</v>
+        <v>51.85185185185185</v>
       </c>
       <c r="I19" s="3" t="n">
-        <v>36.47058823529412</v>
+        <v>18.51851851851852</v>
       </c>
       <c r="J19" s="3" t="n">
-        <v>32.94117647058823</v>
+        <v>29.62962962962963</v>
       </c>
       <c r="K19" s="3" t="n">
-        <v>67.05882352941175</v>
+        <v>70.37037037037037</v>
       </c>
       <c r="L19" s="3" t="n">
-        <v>32.94117647058823</v>
+        <v>29.62962962962963</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sharks</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H20" s="3" t="n">
-        <v>51.85185185185185</v>
+        <v>56.52173913043478</v>
       </c>
       <c r="I20" s="3" t="n">
-        <v>18.51851851851852</v>
+        <v>30.43478260869566</v>
       </c>
       <c r="J20" s="3" t="n">
-        <v>29.62962962962963</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="K20" s="3" t="n">
-        <v>70.37037037037037</v>
+        <v>86.95652173913044</v>
       </c>
       <c r="L20" s="3" t="n">
-        <v>29.62962962962963</v>
+        <v>13.04347826086956</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Global</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>23</v>
+        <v>2596</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>13</v>
+        <v>604</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>7</v>
+        <v>1077</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>3</v>
+        <v>915</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>20</v>
+        <v>1681</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>3</v>
+        <v>915</v>
       </c>
       <c r="H21" s="3" t="n">
-        <v>56.52173913043478</v>
+        <v>23.26656394453005</v>
       </c>
       <c r="I21" s="3" t="n">
-        <v>30.43478260869566</v>
+        <v>41.48690292758089</v>
       </c>
       <c r="J21" s="3" t="n">
-        <v>13.04347826086956</v>
+        <v>35.24653312788907</v>
       </c>
       <c r="K21" s="3" t="n">
-        <v>86.95652173913044</v>
+        <v>64.75346687211095</v>
       </c>
       <c r="L21" s="3" t="n">
-        <v>13.04347826086956</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="n">
-        <v>2605</v>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>612</v>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>1078</v>
-      </c>
-      <c r="E22" s="2" t="n">
-        <v>915</v>
-      </c>
-      <c r="F22" s="2" t="n">
-        <v>1690</v>
-      </c>
-      <c r="G22" s="2" t="n">
-        <v>915</v>
-      </c>
-      <c r="H22" s="3" t="n">
-        <v>23.49328214971209</v>
-      </c>
-      <c r="I22" s="3" t="n">
-        <v>41.38195777351248</v>
-      </c>
-      <c r="J22" s="3" t="n">
-        <v>35.12476007677543</v>
-      </c>
-      <c r="K22" s="3" t="n">
-        <v>64.87523992322457</v>
-      </c>
-      <c r="L22" s="3" t="n">
-        <v>35.12476007677543</v>
+        <v>35.24653312788907</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/status_by_number_area.xlsx
+++ b/output/aggregate_tables/status_by_number_area.xlsx
@@ -629,37 +629,37 @@
         <v>34</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>22</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>70</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>70</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>16.66666666666666</v>
+        <v>16.54135338345865</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>30.3030303030303</v>
+        <v>30.82706766917293</v>
       </c>
       <c r="J5" s="3" t="n">
-        <v>53.03030303030303</v>
+        <v>52.63157894736842</v>
       </c>
       <c r="K5" s="3" t="n">
-        <v>46.96969696969697</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>53.03030303030303</v>
+        <v>52.63157894736842</v>
       </c>
     </row>
     <row r="6">
@@ -1247,37 +1247,37 @@
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>2596</v>
+        <v>2597</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>604</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>915</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>915</v>
       </c>
       <c r="H21" s="3" t="n">
-        <v>23.26656394453005</v>
+        <v>23.25760492876396</v>
       </c>
       <c r="I21" s="3" t="n">
-        <v>41.48690292758089</v>
+        <v>41.50943396226415</v>
       </c>
       <c r="J21" s="3" t="n">
-        <v>35.24653312788907</v>
+        <v>35.23296110897189</v>
       </c>
       <c r="K21" s="3" t="n">
-        <v>64.75346687211095</v>
+        <v>64.76703889102811</v>
       </c>
       <c r="L21" s="3" t="n">
-        <v>35.24653312788907</v>
+        <v>35.23296110897189</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/status_by_number_area.xlsx
+++ b/output/aggregate_tables/status_by_number_area.xlsx
@@ -1167,10 +1167,10 @@
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D19" s="2" t="n">
         <v>5</v>
@@ -1179,25 +1179,25 @@
         <v>8</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>8</v>
       </c>
       <c r="H19" s="3" t="n">
-        <v>51.85185185185185</v>
+        <v>23.52941176470588</v>
       </c>
       <c r="I19" s="3" t="n">
-        <v>18.51851851851852</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="J19" s="3" t="n">
-        <v>29.62962962962963</v>
+        <v>47.05882352941176</v>
       </c>
       <c r="K19" s="3" t="n">
-        <v>70.37037037037037</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="L19" s="3" t="n">
-        <v>29.62962962962963</v>
+        <v>47.05882352941176</v>
       </c>
     </row>
     <row r="20">
@@ -1247,10 +1247,10 @@
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>2597</v>
+        <v>2587</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="D21" s="2" t="n">
         <v>1078</v>
@@ -1259,25 +1259,25 @@
         <v>915</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1682</v>
+        <v>1672</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>915</v>
       </c>
       <c r="H21" s="3" t="n">
-        <v>23.25760492876396</v>
+        <v>22.9609586393506</v>
       </c>
       <c r="I21" s="3" t="n">
-        <v>41.50943396226415</v>
+        <v>41.66988790104368</v>
       </c>
       <c r="J21" s="3" t="n">
-        <v>35.23296110897189</v>
+        <v>35.36915345960573</v>
       </c>
       <c r="K21" s="3" t="n">
-        <v>64.76703889102811</v>
+        <v>64.63084654039429</v>
       </c>
       <c r="L21" s="3" t="n">
-        <v>35.23296110897189</v>
+        <v>35.36915345960573</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/status_by_number_area.xlsx
+++ b/output/aggregate_tables/status_by_number_area.xlsx
@@ -451,7 +451,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Area</t>
+          <t>Analysis Group</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -511,46 +511,50 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>21</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Area 21</t>
+        </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>16</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>55</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>55</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>10.45751633986928</v>
+        <v>10.59602649006623</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>53.59477124183007</v>
+        <v>52.98013245033113</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>35.94771241830065</v>
+        <v>36.42384105960264</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>64.05228758169935</v>
+        <v>63.57615894039736</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>35.94771241830065</v>
+        <v>36.42384105960264</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>27</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Area 27</t>
+        </is>
       </c>
       <c r="B3" s="2" t="n">
         <v>178</v>
@@ -587,11 +591,13 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>31</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Area 31</t>
+        </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>39</v>
@@ -600,33 +606,35 @@
         <v>26</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>65</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>37.86407766990291</v>
+        <v>38.23529411764706</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>25.24271844660194</v>
+        <v>25.49019607843137</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>36.89320388349515</v>
+        <v>36.27450980392157</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>63.10679611650486</v>
+        <v>63.72549019607843</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>36.89320388349515</v>
+        <v>36.27450980392157</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>34</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Area 34</t>
+        </is>
       </c>
       <c r="B5" s="2" t="n">
         <v>133</v>
@@ -663,11 +671,13 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>37</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Area 37</t>
+        </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>9</v>
@@ -676,33 +686,35 @@
         <v>31</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>40</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>7.894736842105263</v>
+        <v>7.964601769911504</v>
       </c>
       <c r="I6" s="3" t="n">
-        <v>27.19298245614035</v>
+        <v>27.43362831858407</v>
       </c>
       <c r="J6" s="3" t="n">
-        <v>64.91228070175438</v>
+        <v>64.60176991150442</v>
       </c>
       <c r="K6" s="3" t="n">
-        <v>35.08771929824561</v>
+        <v>35.39823008849557</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>64.91228070175438</v>
+        <v>64.60176991150442</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>41</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Area 41</t>
+        </is>
       </c>
       <c r="B7" s="2" t="n">
         <v>68</v>
@@ -739,425 +751,443 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>47</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Area 47</t>
+        </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>27</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>32.53012048192771</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="I8" s="3" t="n">
-        <v>27.71084337349398</v>
+        <v>24.69135802469136</v>
       </c>
       <c r="J8" s="3" t="n">
-        <v>39.75903614457831</v>
+        <v>41.9753086419753</v>
       </c>
       <c r="K8" s="3" t="n">
-        <v>60.24096385542169</v>
+        <v>58.0246913580247</v>
       </c>
       <c r="L8" s="3" t="n">
-        <v>39.75903614457831</v>
+        <v>41.9753086419753</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>51</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Area 48,58,88</t>
+        </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>476</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>193</v>
+        <v>3</v>
       </c>
       <c r="E9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="L9" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Area 51</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>471</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="E10" s="2" t="n">
         <v>175</v>
       </c>
-      <c r="F9" s="2" t="n">
-        <v>301</v>
-      </c>
-      <c r="G9" s="2" t="n">
+      <c r="F10" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="G10" s="2" t="n">
         <v>175</v>
       </c>
-      <c r="H9" s="3" t="n">
-        <v>22.6890756302521</v>
-      </c>
-      <c r="I9" s="3" t="n">
-        <v>40.54621848739496</v>
-      </c>
-      <c r="J9" s="3" t="n">
-        <v>36.76470588235294</v>
-      </c>
-      <c r="K9" s="3" t="n">
-        <v>63.23529411764706</v>
-      </c>
-      <c r="L9" s="3" t="n">
-        <v>36.76470588235294</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="H10" s="3" t="n">
+        <v>22.08067940552017</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>40.76433121019109</v>
+      </c>
+      <c r="J10" s="3" t="n">
+        <v>37.15498938428875</v>
+      </c>
+      <c r="K10" s="3" t="n">
+        <v>62.84501061571125</v>
+      </c>
+      <c r="L10" s="3" t="n">
+        <v>37.15498938428875</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Area 57</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>309</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>225</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="H11" s="3" t="n">
+        <v>23.30097087378641</v>
+      </c>
+      <c r="I11" s="3" t="n">
+        <v>49.51456310679612</v>
+      </c>
+      <c r="J11" s="3" t="n">
+        <v>27.18446601941747</v>
+      </c>
+      <c r="K11" s="3" t="n">
+        <v>72.81553398058253</v>
+      </c>
+      <c r="L11" s="3" t="n">
+        <v>27.18446601941747</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Area 61</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="H12" s="3" t="n">
+        <v>31.18279569892473</v>
+      </c>
+      <c r="I12" s="3" t="n">
+        <v>31.18279569892473</v>
+      </c>
+      <c r="J12" s="3" t="n">
+        <v>37.63440860215054</v>
+      </c>
+      <c r="K12" s="3" t="n">
+        <v>62.36559139784946</v>
+      </c>
+      <c r="L12" s="3" t="n">
+        <v>37.63440860215054</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Area 67 - Other Stocks</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="C13" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="B10" s="2" t="n">
-        <v>313</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>73</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>156</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>84</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>229</v>
-      </c>
-      <c r="G10" s="2" t="n">
-        <v>84</v>
-      </c>
-      <c r="H10" s="3" t="n">
-        <v>23.32268370607029</v>
-      </c>
-      <c r="I10" s="3" t="n">
-        <v>49.84025559105431</v>
-      </c>
-      <c r="J10" s="3" t="n">
-        <v>26.8370607028754</v>
-      </c>
-      <c r="K10" s="3" t="n">
-        <v>73.16293929712459</v>
-      </c>
-      <c r="L10" s="3" t="n">
-        <v>26.8370607028754</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>94</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="G11" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="H11" s="3" t="n">
-        <v>30.85106382978723</v>
-      </c>
-      <c r="I11" s="3" t="n">
-        <v>30.85106382978723</v>
-      </c>
-      <c r="J11" s="3" t="n">
-        <v>38.29787234042553</v>
-      </c>
-      <c r="K11" s="3" t="n">
-        <v>61.70212765957447</v>
-      </c>
-      <c r="L11" s="3" t="n">
-        <v>38.29787234042553</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>110</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="D12" s="2" t="n">
+      <c r="D13" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="E12" s="2" t="n">
+      <c r="E13" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="F12" s="2" t="n">
+      <c r="F13" s="2" t="n">
         <v>102</v>
       </c>
-      <c r="G12" s="2" t="n">
+      <c r="G13" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="H12" s="3" t="n">
+      <c r="H13" s="3" t="n">
         <v>51.81818181818182</v>
       </c>
-      <c r="I12" s="3" t="n">
+      <c r="I13" s="3" t="n">
         <v>40.90909090909091</v>
       </c>
-      <c r="J12" s="3" t="n">
+      <c r="J13" s="3" t="n">
         <v>7.272727272727272</v>
       </c>
-      <c r="K12" s="3" t="n">
+      <c r="K13" s="3" t="n">
         <v>92.72727272727272</v>
       </c>
-      <c r="L12" s="3" t="n">
+      <c r="L13" s="3" t="n">
         <v>7.272727272727272</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>71</v>
-      </c>
-      <c r="B13" s="2" t="n">
-        <v>265</v>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>78</v>
-      </c>
-      <c r="E13" s="2" t="n">
-        <v>126</v>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>139</v>
-      </c>
-      <c r="G13" s="2" t="n">
-        <v>126</v>
-      </c>
-      <c r="H13" s="3" t="n">
-        <v>23.0188679245283</v>
-      </c>
-      <c r="I13" s="3" t="n">
-        <v>29.43396226415094</v>
-      </c>
-      <c r="J13" s="3" t="n">
-        <v>47.54716981132076</v>
-      </c>
-      <c r="K13" s="3" t="n">
-        <v>52.45283018867924</v>
-      </c>
-      <c r="L13" s="3" t="n">
-        <v>47.54716981132076</v>
-      </c>
-    </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>77</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Area 67 - Salmon</t>
+        </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>28</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>28</v>
       </c>
       <c r="H14" s="3" t="n">
-        <v>37.63440860215054</v>
+        <v>30.58823529411765</v>
       </c>
       <c r="I14" s="3" t="n">
-        <v>32.25806451612903</v>
+        <v>36.47058823529412</v>
       </c>
       <c r="J14" s="3" t="n">
-        <v>30.10752688172043</v>
+        <v>32.94117647058823</v>
       </c>
       <c r="K14" s="3" t="n">
-        <v>69.89247311827957</v>
+        <v>67.05882352941175</v>
       </c>
       <c r="L14" s="3" t="n">
-        <v>30.10752688172043</v>
+        <v>32.94117647058823</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>81</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Area 71</t>
+        </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>166</v>
+        <v>263</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="H15" s="3" t="n">
-        <v>10.24096385542169</v>
+        <v>23.19391634980989</v>
       </c>
       <c r="I15" s="3" t="n">
-        <v>75.30120481927712</v>
+        <v>29.65779467680608</v>
       </c>
       <c r="J15" s="3" t="n">
-        <v>14.4578313253012</v>
+        <v>47.14828897338403</v>
       </c>
       <c r="K15" s="3" t="n">
-        <v>85.54216867469879</v>
+        <v>52.85171102661597</v>
       </c>
       <c r="L15" s="3" t="n">
-        <v>14.4578313253012</v>
+        <v>47.14828897338403</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>87</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Area 77</t>
+        </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="H16" s="3" t="n">
-        <v>18.36734693877551</v>
+        <v>36.26373626373626</v>
       </c>
       <c r="I16" s="3" t="n">
-        <v>27.55102040816326</v>
+        <v>32.96703296703296</v>
       </c>
       <c r="J16" s="3" t="n">
-        <v>54.08163265306123</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="K16" s="3" t="n">
-        <v>45.91836734693878</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L16" s="3" t="n">
-        <v>54.08163265306123</v>
+        <v>30.76923076923077</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>48,58,88</t>
+          <t>Area 81</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>15</v>
+        <v>165</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>3</v>
+        <v>125</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>15</v>
+        <v>141</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>80</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="L17" s="2" t="n">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="H17" s="3" t="n">
+        <v>9.696969696969697</v>
+      </c>
+      <c r="I17" s="3" t="n">
+        <v>75.75757575757575</v>
+      </c>
+      <c r="J17" s="3" t="n">
+        <v>14.54545454545454</v>
+      </c>
+      <c r="K17" s="3" t="n">
+        <v>85.45454545454545</v>
+      </c>
+      <c r="L17" s="3" t="n">
+        <v>14.54545454545454</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Salmon</t>
+          <t>Area 87</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="H18" s="3" t="n">
-        <v>30.58823529411765</v>
+        <v>18.36734693877551</v>
       </c>
       <c r="I18" s="3" t="n">
-        <v>36.47058823529412</v>
+        <v>27.55102040816326</v>
       </c>
       <c r="J18" s="3" t="n">
-        <v>32.94117647058823</v>
+        <v>54.08163265306123</v>
       </c>
       <c r="K18" s="3" t="n">
-        <v>67.05882352941175</v>
+        <v>45.91836734693878</v>
       </c>
       <c r="L18" s="3" t="n">
-        <v>32.94117647058823</v>
+        <v>54.08163265306123</v>
       </c>
     </row>
     <row r="19">
@@ -1167,37 +1197,37 @@
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H19" s="3" t="n">
-        <v>23.52941176470588</v>
+        <v>30.43478260869566</v>
       </c>
       <c r="I19" s="3" t="n">
-        <v>29.41176470588236</v>
+        <v>26.08695652173913</v>
       </c>
       <c r="J19" s="3" t="n">
-        <v>47.05882352941176</v>
+        <v>43.47826086956522</v>
       </c>
       <c r="K19" s="3" t="n">
-        <v>52.94117647058824</v>
+        <v>56.52173913043478</v>
       </c>
       <c r="L19" s="3" t="n">
-        <v>47.05882352941176</v>
+        <v>43.47826086956522</v>
       </c>
     </row>
     <row r="20">
@@ -1247,37 +1277,37 @@
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>2587</v>
+        <v>2572</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>1078</v>
+        <v>1070</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1672</v>
+        <v>1659</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="H21" s="3" t="n">
-        <v>22.9609586393506</v>
+        <v>22.900466562986</v>
       </c>
       <c r="I21" s="3" t="n">
-        <v>41.66988790104368</v>
+        <v>41.60186625194402</v>
       </c>
       <c r="J21" s="3" t="n">
-        <v>35.36915345960573</v>
+        <v>35.49766718506999</v>
       </c>
       <c r="K21" s="3" t="n">
-        <v>64.63084654039429</v>
+        <v>64.50233281493001</v>
       </c>
       <c r="L21" s="3" t="n">
-        <v>35.36915345960573</v>
+        <v>35.49766718506999</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/status_by_number_area.xlsx
+++ b/output/aggregate_tables/status_by_number_area.xlsx
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>39</v>
@@ -606,28 +606,28 @@
         <v>26</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>65</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>38.23529411764706</v>
+        <v>37.86407766990291</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>25.49019607843137</v>
+        <v>25.24271844660194</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>36.27450980392157</v>
+        <v>36.89320388349515</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>63.72549019607843</v>
+        <v>63.10679611650486</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>36.27450980392157</v>
+        <v>36.89320388349515</v>
       </c>
     </row>
     <row r="5">
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>104</v>
@@ -846,28 +846,28 @@
         <v>192</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>296</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H10" s="3" t="n">
-        <v>22.08067940552017</v>
+        <v>22.12765957446808</v>
       </c>
       <c r="I10" s="3" t="n">
-        <v>40.76433121019109</v>
+        <v>40.85106382978723</v>
       </c>
       <c r="J10" s="3" t="n">
-        <v>37.15498938428875</v>
+        <v>37.02127659574468</v>
       </c>
       <c r="K10" s="3" t="n">
-        <v>62.84501061571125</v>
+        <v>62.97872340425532</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>37.15498938428875</v>
+        <v>37.02127659574468</v>
       </c>
     </row>
     <row r="11">
@@ -877,37 +877,37 @@
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>72</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>84</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>84</v>
       </c>
       <c r="H11" s="3" t="n">
-        <v>23.30097087378641</v>
+        <v>23.37662337662337</v>
       </c>
       <c r="I11" s="3" t="n">
-        <v>49.51456310679612</v>
+        <v>49.35064935064935</v>
       </c>
       <c r="J11" s="3" t="n">
-        <v>27.18446601941747</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="K11" s="3" t="n">
-        <v>72.81553398058253</v>
+        <v>72.72727272727273</v>
       </c>
       <c r="L11" s="3" t="n">
-        <v>27.18446601941747</v>
+        <v>27.27272727272727</v>
       </c>
     </row>
     <row r="12">
@@ -917,7 +917,7 @@
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>29</v>
@@ -926,34 +926,34 @@
         <v>29</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2" t="n">
         <v>58</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H12" s="3" t="n">
-        <v>31.18279569892473</v>
+        <v>31.52173913043478</v>
       </c>
       <c r="I12" s="3" t="n">
-        <v>31.18279569892473</v>
+        <v>31.52173913043478</v>
       </c>
       <c r="J12" s="3" t="n">
-        <v>37.63440860215054</v>
+        <v>36.95652173913043</v>
       </c>
       <c r="K12" s="3" t="n">
-        <v>62.36559139784946</v>
+        <v>63.04347826086957</v>
       </c>
       <c r="L12" s="3" t="n">
-        <v>37.63440860215054</v>
+        <v>36.95652173913043</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Area 67 - Other Stocks</t>
+          <t>Area 67</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
@@ -993,7 +993,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Area 67 - Salmon</t>
+          <t>Area 67 - Pacific Salmon</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
@@ -1157,7 +1157,7 @@
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>18</v>
@@ -1166,28 +1166,28 @@
         <v>27</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F18" s="2" t="n">
         <v>45</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H18" s="3" t="n">
-        <v>18.36734693877551</v>
+        <v>18.55670103092784</v>
       </c>
       <c r="I18" s="3" t="n">
-        <v>27.55102040816326</v>
+        <v>27.83505154639175</v>
       </c>
       <c r="J18" s="3" t="n">
-        <v>54.08163265306123</v>
+        <v>53.60824742268041</v>
       </c>
       <c r="K18" s="3" t="n">
-        <v>45.91836734693878</v>
+        <v>46.39175257731959</v>
       </c>
       <c r="L18" s="3" t="n">
-        <v>54.08163265306123</v>
+        <v>53.60824742268041</v>
       </c>
     </row>
     <row r="19">
@@ -1200,10 +1200,10 @@
         <v>23</v>
       </c>
       <c r="C19" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D19" s="2" t="n">
         <v>7</v>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>6</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>10</v>
@@ -1215,10 +1215,10 @@
         <v>10</v>
       </c>
       <c r="H19" s="3" t="n">
+        <v>26.08695652173913</v>
+      </c>
+      <c r="I19" s="3" t="n">
         <v>30.43478260869566</v>
-      </c>
-      <c r="I19" s="3" t="n">
-        <v>26.08695652173913</v>
       </c>
       <c r="J19" s="3" t="n">
         <v>43.47826086956522</v>
@@ -1277,37 +1277,37 @@
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>2572</v>
+        <v>2569</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D21" s="2" t="n">
         <v>1070</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="H21" s="3" t="n">
-        <v>22.900466562986</v>
+        <v>22.88828337874659</v>
       </c>
       <c r="I21" s="3" t="n">
-        <v>41.60186625194402</v>
+        <v>41.65044764499805</v>
       </c>
       <c r="J21" s="3" t="n">
-        <v>35.49766718506999</v>
+        <v>35.46126897625535</v>
       </c>
       <c r="K21" s="3" t="n">
-        <v>64.50233281493001</v>
+        <v>64.53873102374465</v>
       </c>
       <c r="L21" s="3" t="n">
-        <v>35.49766718506999</v>
+        <v>35.46126897625535</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/status_by_number_area.xlsx
+++ b/output/aggregate_tables/status_by_number_area.xlsx
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>39</v>
@@ -606,28 +606,28 @@
         <v>26</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>65</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>37.86407766990291</v>
-      </c>
-      <c r="I4" s="3" t="n">
-        <v>25.24271844660194</v>
+        <v>37.5</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>25</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>36.89320388349515</v>
+        <v>37.5</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>63.10679611650486</v>
+        <v>62.5</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>36.89320388349515</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="5">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>9</v>
@@ -686,28 +686,28 @@
         <v>31</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>40</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>7.964601769911504</v>
+        <v>7.894736842105263</v>
       </c>
       <c r="I6" s="3" t="n">
-        <v>27.43362831858407</v>
+        <v>27.19298245614035</v>
       </c>
       <c r="J6" s="3" t="n">
-        <v>64.60176991150442</v>
+        <v>64.91228070175438</v>
       </c>
       <c r="K6" s="3" t="n">
-        <v>35.39823008849557</v>
+        <v>35.08771929824561</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>64.60176991150442</v>
+        <v>64.91228070175438</v>
       </c>
     </row>
     <row r="7">
@@ -717,37 +717,37 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>10</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>29</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="2" t="n">
         <v>29</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>14.70588235294118</v>
+        <v>14.49275362318841</v>
       </c>
       <c r="I7" s="3" t="n">
-        <v>42.64705882352941</v>
+        <v>43.47826086956522</v>
       </c>
       <c r="J7" s="3" t="n">
-        <v>42.64705882352941</v>
+        <v>42.02898550724638</v>
       </c>
       <c r="K7" s="3" t="n">
-        <v>57.35294117647059</v>
+        <v>57.97101449275362</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>42.64705882352941</v>
+        <v>42.02898550724638</v>
       </c>
     </row>
     <row r="8">
@@ -1277,37 +1277,37 @@
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>2569</v>
+        <v>2572</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>588</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="H21" s="3" t="n">
-        <v>22.88828337874659</v>
+        <v>22.86158631415241</v>
       </c>
       <c r="I21" s="3" t="n">
-        <v>41.65044764499805</v>
+        <v>41.6407465007776</v>
       </c>
       <c r="J21" s="3" t="n">
-        <v>35.46126897625535</v>
+        <v>35.49766718506999</v>
       </c>
       <c r="K21" s="3" t="n">
-        <v>64.53873102374465</v>
+        <v>64.50233281493001</v>
       </c>
       <c r="L21" s="3" t="n">
-        <v>35.46126897625535</v>
+        <v>35.49766718506999</v>
       </c>
     </row>
   </sheetData>
